--- a/Masjid/output/SPMD03840/RekodBantuan.xlsx
+++ b/Masjid/output/SPMD03840/RekodBantuan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="811">
   <si>
     <t>MASJID JAMEK AR-RAHMANI KAMPUNG BANGGOL</t>
   </si>
@@ -2320,6 +2320,135 @@
   </si>
   <si>
     <t>1851, PERMATANG KERAI KECIL,13200 SEBERANG PERAI UTARA (KEPALA BATAS),PULAU PINANG</t>
+  </si>
+  <si>
+    <t>2023-05-23</t>
+  </si>
+  <si>
+    <t>2023-05-24</t>
+  </si>
+  <si>
+    <t>2023-05-25</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>2023-05-31</t>
+  </si>
+  <si>
+    <t>BANTUAN BULANAN (JUN 2023)</t>
+  </si>
+  <si>
+    <t>2023-06-01</t>
+  </si>
+  <si>
+    <t>2023-06-02</t>
+  </si>
+  <si>
+    <t>0192042831</t>
+  </si>
+  <si>
+    <t>TBP 5751 UNIT 2, JALAN KAMPUNG BARU,13200 SEBERANG PERAI UTARA (KEPALA BATAS),PULAU PINANG</t>
+  </si>
+  <si>
+    <t>2023-06-03</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>2023-06-06</t>
+  </si>
+  <si>
+    <t>2023-06-07</t>
+  </si>
+  <si>
+    <t>2023-06-09</t>
+  </si>
+  <si>
+    <t>2023-06-12</t>
+  </si>
+  <si>
+    <t>2023-06-13</t>
+  </si>
+  <si>
+    <t>2023-06-15</t>
+  </si>
+  <si>
+    <t>2023-06-16</t>
+  </si>
+  <si>
+    <t>2023-06-19</t>
+  </si>
+  <si>
+    <t>2023-06-21</t>
+  </si>
+  <si>
+    <t>2023-06-22</t>
+  </si>
+  <si>
+    <t>BANTUAN BULANAN (JULAI 2023)</t>
+  </si>
+  <si>
+    <t>2023-07-03</t>
+  </si>
+  <si>
+    <t>2023-07-04</t>
+  </si>
+  <si>
+    <t>2023-07-05</t>
+  </si>
+  <si>
+    <t>2023-07-06</t>
+  </si>
+  <si>
+    <t>2023-07-08</t>
+  </si>
+  <si>
+    <t>2023-07-10</t>
+  </si>
+  <si>
+    <t>2023-07-13</t>
+  </si>
+  <si>
+    <t>2023-07-15</t>
+  </si>
+  <si>
+    <t>2023-07-17</t>
+  </si>
+  <si>
+    <t>2023-07-20</t>
+  </si>
+  <si>
+    <t>2023-07-21</t>
+  </si>
+  <si>
+    <t>2023-07-24</t>
+  </si>
+  <si>
+    <t>2023-07-26</t>
+  </si>
+  <si>
+    <t>2023-07-25</t>
+  </si>
+  <si>
+    <t>2023-07-27</t>
+  </si>
+  <si>
+    <t>2023-07-28</t>
+  </si>
+  <si>
+    <t>BANTUAN BULANAN (OGOS 2023)</t>
+  </si>
+  <si>
+    <t>2023-08-01</t>
+  </si>
+  <si>
+    <t>2023-08-02</t>
+  </si>
+  <si>
+    <t>2023-08-04</t>
   </si>
 </sst>
 </file>
@@ -2714,7 +2843,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R604"/>
+  <dimension ref="A1:R679"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="B6" sqref="B6"/>
@@ -32100,6 +32229,3681 @@
         <v>1</v>
       </c>
     </row>
+    <row r="605" spans="1:18">
+      <c r="B605" s="3">
+        <v>600</v>
+      </c>
+      <c r="C605" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="D605" s="3">
+        <v>660526075079</v>
+      </c>
+      <c r="E605" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F605" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="G605" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H605" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="I605" s="3">
+        <v>3</v>
+      </c>
+      <c r="J605" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="K605" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="L605" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M605" s="3"/>
+      <c r="N605" s="3"/>
+      <c r="O605" s="3">
+        <v>1</v>
+      </c>
+      <c r="P605" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="Q605" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R605" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:18">
+      <c r="B606" s="3">
+        <v>601</v>
+      </c>
+      <c r="C606" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D606" s="3">
+        <v>510810025198</v>
+      </c>
+      <c r="E606" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F606" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G606" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H606" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I606" s="3">
+        <v>3</v>
+      </c>
+      <c r="J606" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="K606" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="L606" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M606" s="3"/>
+      <c r="N606" s="3"/>
+      <c r="O606" s="3">
+        <v>1</v>
+      </c>
+      <c r="P606" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="Q606" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R606" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:18">
+      <c r="B607" s="3">
+        <v>602</v>
+      </c>
+      <c r="C607" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D607" s="3">
+        <v>620410075513</v>
+      </c>
+      <c r="E607" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F607" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="G607" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H607" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="I607" s="3">
+        <v>6</v>
+      </c>
+      <c r="J607" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="K607" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="L607" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M607" s="3"/>
+      <c r="N607" s="3"/>
+      <c r="O607" s="3">
+        <v>1</v>
+      </c>
+      <c r="P607" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="Q607" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R607" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:18">
+      <c r="B608" s="3">
+        <v>603</v>
+      </c>
+      <c r="C608" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D608" s="3">
+        <v>620410075513</v>
+      </c>
+      <c r="E608" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F608" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="G608" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H608" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="I608" s="3">
+        <v>6</v>
+      </c>
+      <c r="J608" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="K608" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="L608" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M608" s="3"/>
+      <c r="N608" s="3"/>
+      <c r="O608" s="3">
+        <v>1</v>
+      </c>
+      <c r="P608" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="Q608" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R608" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:18">
+      <c r="B609" s="3">
+        <v>604</v>
+      </c>
+      <c r="C609" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="D609" s="3">
+        <v>950424075014</v>
+      </c>
+      <c r="E609" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="F609" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="G609" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H609" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="I609" s="3">
+        <v>0</v>
+      </c>
+      <c r="J609" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="K609" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="L609" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M609" s="3"/>
+      <c r="N609" s="3"/>
+      <c r="O609" s="3">
+        <v>1</v>
+      </c>
+      <c r="P609" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="Q609" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R609" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:18">
+      <c r="B610" s="3">
+        <v>605</v>
+      </c>
+      <c r="C610" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D610" s="3">
+        <v>590524025376</v>
+      </c>
+      <c r="E610" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F610" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G610" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H610" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I610" s="3">
+        <v>0</v>
+      </c>
+      <c r="J610" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="K610" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="L610" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M610" s="3"/>
+      <c r="N610" s="3"/>
+      <c r="O610" s="3">
+        <v>1</v>
+      </c>
+      <c r="P610" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="Q610" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R610" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:18">
+      <c r="B611" s="3">
+        <v>606</v>
+      </c>
+      <c r="C611" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D611" s="3">
+        <v>580925075316</v>
+      </c>
+      <c r="E611" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F611" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G611" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H611" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I611" s="3">
+        <v>3</v>
+      </c>
+      <c r="J611" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="K611" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="L611" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M611" s="3"/>
+      <c r="N611" s="3"/>
+      <c r="O611" s="3">
+        <v>1</v>
+      </c>
+      <c r="P611" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="Q611" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R611" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:18">
+      <c r="B612" s="3">
+        <v>607</v>
+      </c>
+      <c r="C612" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D612" s="3">
+        <v>760829025798</v>
+      </c>
+      <c r="E612" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F612" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="G612" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H612" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="I612" s="3">
+        <v>4</v>
+      </c>
+      <c r="J612" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="K612" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="L612" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M612" s="3"/>
+      <c r="N612" s="3"/>
+      <c r="O612" s="3">
+        <v>1</v>
+      </c>
+      <c r="P612" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="Q612" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R612" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:18">
+      <c r="B613" s="3">
+        <v>608</v>
+      </c>
+      <c r="C613" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D613" s="3">
+        <v>760829025798</v>
+      </c>
+      <c r="E613" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F613" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="G613" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H613" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="I613" s="3">
+        <v>4</v>
+      </c>
+      <c r="J613" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="K613" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="L613" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M613" s="3"/>
+      <c r="N613" s="3"/>
+      <c r="O613" s="3">
+        <v>1</v>
+      </c>
+      <c r="P613" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="Q613" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R613" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:18">
+      <c r="B614" s="3">
+        <v>609</v>
+      </c>
+      <c r="C614" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D614" s="3">
+        <v>610427075828</v>
+      </c>
+      <c r="E614" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F614" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G614" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H614" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I614" s="3">
+        <v>3</v>
+      </c>
+      <c r="J614" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="K614" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="L614" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M614" s="3"/>
+      <c r="N614" s="3"/>
+      <c r="O614" s="3">
+        <v>1</v>
+      </c>
+      <c r="P614" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="Q614" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R614" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:18">
+      <c r="B615" s="3">
+        <v>610</v>
+      </c>
+      <c r="C615" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D615" s="3">
+        <v>811229075203</v>
+      </c>
+      <c r="E615" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F615" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="G615" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H615" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="I615" s="3">
+        <v>5</v>
+      </c>
+      <c r="J615" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="K615" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="L615" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M615" s="3"/>
+      <c r="N615" s="3"/>
+      <c r="O615" s="3">
+        <v>1</v>
+      </c>
+      <c r="P615" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="Q615" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R615" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616" spans="1:18">
+      <c r="B616" s="3">
+        <v>611</v>
+      </c>
+      <c r="C616" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D616" s="3">
+        <v>870402355461</v>
+      </c>
+      <c r="E616" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F616" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="G616" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H616" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="I616" s="3">
+        <v>6</v>
+      </c>
+      <c r="J616" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="K616" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="L616" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M616" s="3"/>
+      <c r="N616" s="3"/>
+      <c r="O616" s="3">
+        <v>1</v>
+      </c>
+      <c r="P616" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="Q616" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R616" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" spans="1:18">
+      <c r="B617" s="3">
+        <v>612</v>
+      </c>
+      <c r="C617" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="D617" s="3">
+        <v>950424075014</v>
+      </c>
+      <c r="E617" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="F617" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="G617" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H617" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="I617" s="3">
+        <v>0</v>
+      </c>
+      <c r="J617" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="K617" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="L617" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M617" s="3"/>
+      <c r="N617" s="3"/>
+      <c r="O617" s="3">
+        <v>1</v>
+      </c>
+      <c r="P617" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="Q617" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R617" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:18">
+      <c r="B618" s="3">
+        <v>613</v>
+      </c>
+      <c r="C618" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D618" s="3">
+        <v>580925075316</v>
+      </c>
+      <c r="E618" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F618" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G618" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H618" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I618" s="3">
+        <v>3</v>
+      </c>
+      <c r="J618" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="K618" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="L618" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M618" s="3"/>
+      <c r="N618" s="3"/>
+      <c r="O618" s="3">
+        <v>1</v>
+      </c>
+      <c r="P618" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="Q618" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R618" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:18">
+      <c r="B619" s="3">
+        <v>614</v>
+      </c>
+      <c r="C619" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D619" s="3">
+        <v>751027075342</v>
+      </c>
+      <c r="E619" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F619" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="G619" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H619" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="I619" s="3">
+        <v>1</v>
+      </c>
+      <c r="J619" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="K619" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="L619" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M619" s="3"/>
+      <c r="N619" s="3"/>
+      <c r="O619" s="3">
+        <v>1</v>
+      </c>
+      <c r="P619" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="Q619" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R619" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620" spans="1:18">
+      <c r="B620" s="3">
+        <v>615</v>
+      </c>
+      <c r="C620" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D620" s="3">
+        <v>761115075368</v>
+      </c>
+      <c r="E620" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F620" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="G620" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H620" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="I620" s="3">
+        <v>4</v>
+      </c>
+      <c r="J620" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="K620" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="L620" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M620" s="3"/>
+      <c r="N620" s="3"/>
+      <c r="O620" s="3">
+        <v>1</v>
+      </c>
+      <c r="P620" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="Q620" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R620" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:18">
+      <c r="B621" s="3">
+        <v>616</v>
+      </c>
+      <c r="C621" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D621" s="3">
+        <v>381111075382</v>
+      </c>
+      <c r="E621" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F621" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="G621" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H621" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="I621" s="3">
+        <v>3</v>
+      </c>
+      <c r="J621" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="K621" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="L621" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M621" s="3"/>
+      <c r="N621" s="3"/>
+      <c r="O621" s="3">
+        <v>1</v>
+      </c>
+      <c r="P621" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="Q621" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R621" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:18">
+      <c r="B622" s="3">
+        <v>617</v>
+      </c>
+      <c r="C622" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D622" s="3">
+        <v>570609076000</v>
+      </c>
+      <c r="E622" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F622" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G622" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H622" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="I622" s="3">
+        <v>7</v>
+      </c>
+      <c r="J622" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="K622" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="L622" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M622" s="3"/>
+      <c r="N622" s="3"/>
+      <c r="O622" s="3">
+        <v>1</v>
+      </c>
+      <c r="P622" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="Q622" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R622" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:18">
+      <c r="B623" s="3">
+        <v>618</v>
+      </c>
+      <c r="C623" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D623" s="3">
+        <v>470324075153</v>
+      </c>
+      <c r="E623" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F623" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="G623" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H623" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="I623" s="3">
+        <v>2</v>
+      </c>
+      <c r="J623" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="K623" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="L623" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M623" s="3"/>
+      <c r="N623" s="3"/>
+      <c r="O623" s="3">
+        <v>1</v>
+      </c>
+      <c r="P623" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="Q623" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R623" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:18">
+      <c r="B624" s="3">
+        <v>619</v>
+      </c>
+      <c r="C624" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D624" s="3">
+        <v>500805075431</v>
+      </c>
+      <c r="E624" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F624" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="G624" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H624" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="I624" s="3">
+        <v>2</v>
+      </c>
+      <c r="J624" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="K624" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="L624" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M624" s="3"/>
+      <c r="N624" s="3"/>
+      <c r="O624" s="3">
+        <v>1</v>
+      </c>
+      <c r="P624" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="Q624" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R624" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:18">
+      <c r="B625" s="3">
+        <v>620</v>
+      </c>
+      <c r="C625" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D625" s="3">
+        <v>530523075333</v>
+      </c>
+      <c r="E625" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F625" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="G625" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H625" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="I625" s="3">
+        <v>3</v>
+      </c>
+      <c r="J625" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="K625" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="L625" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M625" s="3"/>
+      <c r="N625" s="3"/>
+      <c r="O625" s="3">
+        <v>1</v>
+      </c>
+      <c r="P625" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="Q625" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R625" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:18">
+      <c r="B626" s="3">
+        <v>621</v>
+      </c>
+      <c r="C626" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="D626" s="3">
+        <v>850913075877</v>
+      </c>
+      <c r="E626" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F626" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="G626" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H626" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="I626" s="3">
+        <v>3</v>
+      </c>
+      <c r="J626" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="K626" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="L626" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M626" s="3"/>
+      <c r="N626" s="3"/>
+      <c r="O626" s="3">
+        <v>1</v>
+      </c>
+      <c r="P626" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="Q626" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R626" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:18">
+      <c r="B627" s="3">
+        <v>622</v>
+      </c>
+      <c r="C627" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D627" s="3">
+        <v>840214015059</v>
+      </c>
+      <c r="E627" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F627" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="G627" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H627" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="I627" s="3">
+        <v>3</v>
+      </c>
+      <c r="J627" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="K627" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="L627" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M627" s="3"/>
+      <c r="N627" s="3"/>
+      <c r="O627" s="3">
+        <v>1</v>
+      </c>
+      <c r="P627" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="Q627" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R627" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" spans="1:18">
+      <c r="B628" s="3">
+        <v>623</v>
+      </c>
+      <c r="C628" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D628" s="3">
+        <v>520312075319</v>
+      </c>
+      <c r="E628" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F628" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G628" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H628" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I628" s="3">
+        <v>1</v>
+      </c>
+      <c r="J628" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="K628" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="L628" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M628" s="3"/>
+      <c r="N628" s="3"/>
+      <c r="O628" s="3">
+        <v>1</v>
+      </c>
+      <c r="P628" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="Q628" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R628" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:18">
+      <c r="B629" s="3">
+        <v>624</v>
+      </c>
+      <c r="C629" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D629" s="3">
+        <v>730107025457</v>
+      </c>
+      <c r="E629" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F629" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G629" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H629" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="I629" s="3">
+        <v>2</v>
+      </c>
+      <c r="J629" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="K629" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="L629" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M629" s="3"/>
+      <c r="N629" s="3"/>
+      <c r="O629" s="3">
+        <v>1</v>
+      </c>
+      <c r="P629" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="Q629" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R629" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:18">
+      <c r="B630" s="3">
+        <v>625</v>
+      </c>
+      <c r="C630" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D630" s="3">
+        <v>340807075072</v>
+      </c>
+      <c r="E630" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F630" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G630" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H630" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="I630" s="3">
+        <v>6</v>
+      </c>
+      <c r="J630" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="K630" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="L630" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M630" s="3"/>
+      <c r="N630" s="3"/>
+      <c r="O630" s="3">
+        <v>1</v>
+      </c>
+      <c r="P630" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="Q630" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R630" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:18">
+      <c r="B631" s="3">
+        <v>626</v>
+      </c>
+      <c r="C631" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D631" s="3">
+        <v>520802085691</v>
+      </c>
+      <c r="E631" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F631" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G631" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H631" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="I631" s="3">
+        <v>7</v>
+      </c>
+      <c r="J631" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="K631" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="L631" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M631" s="3"/>
+      <c r="N631" s="3"/>
+      <c r="O631" s="3">
+        <v>1</v>
+      </c>
+      <c r="P631" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="Q631" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R631" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:18">
+      <c r="B632" s="3">
+        <v>627</v>
+      </c>
+      <c r="C632" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D632" s="3">
+        <v>781119075080</v>
+      </c>
+      <c r="E632" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F632" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G632" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H632" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I632" s="3">
+        <v>3</v>
+      </c>
+      <c r="J632" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="K632" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="L632" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M632" s="3"/>
+      <c r="N632" s="3"/>
+      <c r="O632" s="3">
+        <v>1</v>
+      </c>
+      <c r="P632" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="Q632" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R632" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:18">
+      <c r="B633" s="3">
+        <v>628</v>
+      </c>
+      <c r="C633" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D633" s="3">
+        <v>840504075383</v>
+      </c>
+      <c r="E633" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F633" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="G633" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H633" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="I633" s="3">
+        <v>5</v>
+      </c>
+      <c r="J633" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="K633" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="L633" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M633" s="3"/>
+      <c r="N633" s="3"/>
+      <c r="O633" s="3">
+        <v>1</v>
+      </c>
+      <c r="P633" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="Q633" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R633" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:18">
+      <c r="B634" s="3">
+        <v>629</v>
+      </c>
+      <c r="C634" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D634" s="3">
+        <v>750630075174</v>
+      </c>
+      <c r="E634" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F634" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="G634" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H634" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="I634" s="3">
+        <v>2</v>
+      </c>
+      <c r="J634" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="K634" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="L634" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M634" s="3"/>
+      <c r="N634" s="3"/>
+      <c r="O634" s="3">
+        <v>1</v>
+      </c>
+      <c r="P634" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q634" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R634" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:18">
+      <c r="B635" s="3">
+        <v>630</v>
+      </c>
+      <c r="C635" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="D635" s="3">
+        <v>540323075398</v>
+      </c>
+      <c r="E635" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F635" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="G635" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H635" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="I635" s="3">
+        <v>1</v>
+      </c>
+      <c r="J635" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="K635" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="L635" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M635" s="3"/>
+      <c r="N635" s="3"/>
+      <c r="O635" s="3">
+        <v>1</v>
+      </c>
+      <c r="P635" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="Q635" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R635" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:18">
+      <c r="B636" s="3">
+        <v>631</v>
+      </c>
+      <c r="C636" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D636" s="3">
+        <v>590524025376</v>
+      </c>
+      <c r="E636" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F636" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G636" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H636" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I636" s="3">
+        <v>0</v>
+      </c>
+      <c r="J636" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="K636" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="L636" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M636" s="3"/>
+      <c r="N636" s="3"/>
+      <c r="O636" s="3">
+        <v>1</v>
+      </c>
+      <c r="P636" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="Q636" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R636" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:18">
+      <c r="B637" s="3">
+        <v>632</v>
+      </c>
+      <c r="C637" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D637" s="3">
+        <v>460623075429</v>
+      </c>
+      <c r="E637" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F637" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="G637" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H637" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="I637" s="3">
+        <v>6</v>
+      </c>
+      <c r="J637" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="K637" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="L637" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M637" s="3"/>
+      <c r="N637" s="3"/>
+      <c r="O637" s="3">
+        <v>1</v>
+      </c>
+      <c r="P637" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="Q637" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R637" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:18">
+      <c r="B638" s="3">
+        <v>633</v>
+      </c>
+      <c r="C638" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D638" s="3">
+        <v>381213025378</v>
+      </c>
+      <c r="E638" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F638" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G638" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H638" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="I638" s="3">
+        <v>3</v>
+      </c>
+      <c r="J638" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="K638" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="L638" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M638" s="3"/>
+      <c r="N638" s="3"/>
+      <c r="O638" s="3">
+        <v>1</v>
+      </c>
+      <c r="P638" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="Q638" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R638" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:18">
+      <c r="B639" s="3">
+        <v>634</v>
+      </c>
+      <c r="C639" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D639" s="3">
+        <v>381213025378</v>
+      </c>
+      <c r="E639" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F639" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G639" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H639" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="I639" s="3">
+        <v>3</v>
+      </c>
+      <c r="J639" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="K639" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="L639" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M639" s="3"/>
+      <c r="N639" s="3"/>
+      <c r="O639" s="3">
+        <v>1</v>
+      </c>
+      <c r="P639" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="Q639" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R639" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" spans="1:18">
+      <c r="B640" s="3">
+        <v>635</v>
+      </c>
+      <c r="C640" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="D640" s="3">
+        <v>660526075079</v>
+      </c>
+      <c r="E640" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F640" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="G640" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H640" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="I640" s="3">
+        <v>3</v>
+      </c>
+      <c r="J640" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="K640" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="L640" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M640" s="3"/>
+      <c r="N640" s="3"/>
+      <c r="O640" s="3">
+        <v>1</v>
+      </c>
+      <c r="P640" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="Q640" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R640" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:18">
+      <c r="B641" s="3">
+        <v>636</v>
+      </c>
+      <c r="C641" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D641" s="3">
+        <v>501205075264</v>
+      </c>
+      <c r="E641" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F641" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G641" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H641" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="I641" s="3">
+        <v>1</v>
+      </c>
+      <c r="J641" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="K641" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="L641" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M641" s="3"/>
+      <c r="N641" s="3"/>
+      <c r="O641" s="3">
+        <v>1</v>
+      </c>
+      <c r="P641" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="Q641" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R641" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:18">
+      <c r="B642" s="3">
+        <v>637</v>
+      </c>
+      <c r="C642" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D642" s="3">
+        <v>510810025198</v>
+      </c>
+      <c r="E642" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F642" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G642" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H642" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I642" s="3">
+        <v>3</v>
+      </c>
+      <c r="J642" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="K642" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="L642" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M642" s="3"/>
+      <c r="N642" s="3"/>
+      <c r="O642" s="3">
+        <v>1</v>
+      </c>
+      <c r="P642" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="Q642" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R642" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:18">
+      <c r="B643" s="3">
+        <v>638</v>
+      </c>
+      <c r="C643" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="D643" s="3">
+        <v>721108075793</v>
+      </c>
+      <c r="E643" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F643" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="G643" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H643" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="I643" s="3">
+        <v>3</v>
+      </c>
+      <c r="J643" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="K643" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="L643" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M643" s="3"/>
+      <c r="N643" s="3"/>
+      <c r="O643" s="3">
+        <v>1</v>
+      </c>
+      <c r="P643" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="Q643" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R643" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="1:18">
+      <c r="B644" s="3">
+        <v>639</v>
+      </c>
+      <c r="C644" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D644" s="3">
+        <v>520928075421</v>
+      </c>
+      <c r="E644" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F644" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G644" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H644" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="I644" s="3">
+        <v>6</v>
+      </c>
+      <c r="J644" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="K644" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="L644" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M644" s="3"/>
+      <c r="N644" s="3"/>
+      <c r="O644" s="3">
+        <v>1</v>
+      </c>
+      <c r="P644" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="Q644" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R644" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:18">
+      <c r="B645" s="3">
+        <v>640</v>
+      </c>
+      <c r="C645" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D645" s="3">
+        <v>501205075264</v>
+      </c>
+      <c r="E645" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F645" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G645" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H645" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="I645" s="3">
+        <v>1</v>
+      </c>
+      <c r="J645" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="K645" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="L645" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M645" s="3"/>
+      <c r="N645" s="3"/>
+      <c r="O645" s="3">
+        <v>1</v>
+      </c>
+      <c r="P645" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="Q645" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R645" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:18">
+      <c r="B646" s="3">
+        <v>641</v>
+      </c>
+      <c r="C646" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D646" s="3">
+        <v>510810025198</v>
+      </c>
+      <c r="E646" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F646" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G646" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H646" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I646" s="3">
+        <v>3</v>
+      </c>
+      <c r="J646" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="K646" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="L646" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M646" s="3"/>
+      <c r="N646" s="3"/>
+      <c r="O646" s="3">
+        <v>1</v>
+      </c>
+      <c r="P646" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="Q646" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R646" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" spans="1:18">
+      <c r="B647" s="3">
+        <v>642</v>
+      </c>
+      <c r="C647" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D647" s="3">
+        <v>470324075153</v>
+      </c>
+      <c r="E647" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F647" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="G647" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H647" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="I647" s="3">
+        <v>2</v>
+      </c>
+      <c r="J647" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="K647" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="L647" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M647" s="3"/>
+      <c r="N647" s="3"/>
+      <c r="O647" s="3">
+        <v>1</v>
+      </c>
+      <c r="P647" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="Q647" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R647" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" spans="1:18">
+      <c r="B648" s="3">
+        <v>643</v>
+      </c>
+      <c r="C648" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D648" s="3">
+        <v>761115075368</v>
+      </c>
+      <c r="E648" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F648" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="G648" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H648" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="I648" s="3">
+        <v>4</v>
+      </c>
+      <c r="J648" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="K648" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="L648" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M648" s="3"/>
+      <c r="N648" s="3"/>
+      <c r="O648" s="3">
+        <v>1</v>
+      </c>
+      <c r="P648" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="Q648" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R648" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649" spans="1:18">
+      <c r="B649" s="3">
+        <v>644</v>
+      </c>
+      <c r="C649" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D649" s="3">
+        <v>870402355461</v>
+      </c>
+      <c r="E649" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F649" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="G649" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H649" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="I649" s="3">
+        <v>6</v>
+      </c>
+      <c r="J649" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="K649" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="L649" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M649" s="3"/>
+      <c r="N649" s="3"/>
+      <c r="O649" s="3">
+        <v>1</v>
+      </c>
+      <c r="P649" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="Q649" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R649" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:18">
+      <c r="B650" s="3">
+        <v>645</v>
+      </c>
+      <c r="C650" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D650" s="3">
+        <v>811229075203</v>
+      </c>
+      <c r="E650" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F650" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="G650" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H650" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="I650" s="3">
+        <v>5</v>
+      </c>
+      <c r="J650" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="K650" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="L650" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M650" s="3"/>
+      <c r="N650" s="3"/>
+      <c r="O650" s="3">
+        <v>1</v>
+      </c>
+      <c r="P650" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="Q650" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R650" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:18">
+      <c r="B651" s="3">
+        <v>646</v>
+      </c>
+      <c r="C651" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="D651" s="3">
+        <v>950424075014</v>
+      </c>
+      <c r="E651" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="F651" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="G651" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H651" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="I651" s="3">
+        <v>0</v>
+      </c>
+      <c r="J651" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="K651" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="L651" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M651" s="3"/>
+      <c r="N651" s="3"/>
+      <c r="O651" s="3">
+        <v>1</v>
+      </c>
+      <c r="P651" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="Q651" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R651" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="1:18">
+      <c r="B652" s="3">
+        <v>647</v>
+      </c>
+      <c r="C652" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="D652" s="3">
+        <v>850913075877</v>
+      </c>
+      <c r="E652" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F652" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="G652" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H652" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="I652" s="3">
+        <v>3</v>
+      </c>
+      <c r="J652" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="K652" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="L652" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M652" s="3"/>
+      <c r="N652" s="3"/>
+      <c r="O652" s="3">
+        <v>1</v>
+      </c>
+      <c r="P652" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="Q652" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R652" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:18">
+      <c r="B653" s="3">
+        <v>648</v>
+      </c>
+      <c r="C653" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D653" s="3">
+        <v>751027075342</v>
+      </c>
+      <c r="E653" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F653" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="G653" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H653" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="I653" s="3">
+        <v>1</v>
+      </c>
+      <c r="J653" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="K653" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="L653" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M653" s="3"/>
+      <c r="N653" s="3"/>
+      <c r="O653" s="3">
+        <v>1</v>
+      </c>
+      <c r="P653" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="Q653" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R653" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:18">
+      <c r="B654" s="3">
+        <v>649</v>
+      </c>
+      <c r="C654" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D654" s="3">
+        <v>500805075431</v>
+      </c>
+      <c r="E654" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F654" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="G654" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H654" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="I654" s="3">
+        <v>2</v>
+      </c>
+      <c r="J654" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="K654" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="L654" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M654" s="3"/>
+      <c r="N654" s="3"/>
+      <c r="O654" s="3">
+        <v>1</v>
+      </c>
+      <c r="P654" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="Q654" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R654" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655" spans="1:18">
+      <c r="B655" s="3">
+        <v>650</v>
+      </c>
+      <c r="C655" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D655" s="3">
+        <v>730107025457</v>
+      </c>
+      <c r="E655" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F655" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G655" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H655" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="I655" s="3">
+        <v>2</v>
+      </c>
+      <c r="J655" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="K655" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="L655" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M655" s="3"/>
+      <c r="N655" s="3"/>
+      <c r="O655" s="3">
+        <v>1</v>
+      </c>
+      <c r="P655" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="Q655" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R655" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" spans="1:18">
+      <c r="B656" s="3">
+        <v>651</v>
+      </c>
+      <c r="C656" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D656" s="3">
+        <v>340807075072</v>
+      </c>
+      <c r="E656" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F656" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G656" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H656" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="I656" s="3">
+        <v>6</v>
+      </c>
+      <c r="J656" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="K656" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="L656" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M656" s="3"/>
+      <c r="N656" s="3"/>
+      <c r="O656" s="3">
+        <v>1</v>
+      </c>
+      <c r="P656" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="Q656" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R656" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:18">
+      <c r="B657" s="3">
+        <v>652</v>
+      </c>
+      <c r="C657" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D657" s="3">
+        <v>520312075319</v>
+      </c>
+      <c r="E657" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F657" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G657" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H657" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I657" s="3">
+        <v>1</v>
+      </c>
+      <c r="J657" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="K657" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="L657" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M657" s="3"/>
+      <c r="N657" s="3"/>
+      <c r="O657" s="3">
+        <v>1</v>
+      </c>
+      <c r="P657" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="Q657" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R657" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:18">
+      <c r="B658" s="3">
+        <v>653</v>
+      </c>
+      <c r="C658" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D658" s="3">
+        <v>460623075429</v>
+      </c>
+      <c r="E658" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F658" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="G658" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H658" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="I658" s="3">
+        <v>6</v>
+      </c>
+      <c r="J658" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="K658" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="L658" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M658" s="3"/>
+      <c r="N658" s="3"/>
+      <c r="O658" s="3">
+        <v>1</v>
+      </c>
+      <c r="P658" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="Q658" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R658" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:18">
+      <c r="B659" s="3">
+        <v>654</v>
+      </c>
+      <c r="C659" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D659" s="3">
+        <v>530523075333</v>
+      </c>
+      <c r="E659" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F659" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="G659" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H659" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="I659" s="3">
+        <v>3</v>
+      </c>
+      <c r="J659" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="K659" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="L659" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M659" s="3"/>
+      <c r="N659" s="3"/>
+      <c r="O659" s="3">
+        <v>1</v>
+      </c>
+      <c r="P659" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="Q659" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R659" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:18">
+      <c r="B660" s="3">
+        <v>655</v>
+      </c>
+      <c r="C660" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D660" s="3">
+        <v>760829025798</v>
+      </c>
+      <c r="E660" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F660" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="G660" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H660" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="I660" s="3">
+        <v>4</v>
+      </c>
+      <c r="J660" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="K660" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="L660" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M660" s="3"/>
+      <c r="N660" s="3"/>
+      <c r="O660" s="3">
+        <v>1</v>
+      </c>
+      <c r="P660" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="Q660" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R660" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:18">
+      <c r="B661" s="3">
+        <v>656</v>
+      </c>
+      <c r="C661" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D661" s="3">
+        <v>590524025376</v>
+      </c>
+      <c r="E661" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F661" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G661" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H661" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I661" s="3">
+        <v>0</v>
+      </c>
+      <c r="J661" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="K661" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="L661" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M661" s="3"/>
+      <c r="N661" s="3"/>
+      <c r="O661" s="3">
+        <v>1</v>
+      </c>
+      <c r="P661" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="Q661" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R661" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:18">
+      <c r="B662" s="3">
+        <v>657</v>
+      </c>
+      <c r="C662" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D662" s="3">
+        <v>520802085691</v>
+      </c>
+      <c r="E662" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F662" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G662" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H662" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="I662" s="3">
+        <v>7</v>
+      </c>
+      <c r="J662" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="K662" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="L662" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M662" s="3"/>
+      <c r="N662" s="3"/>
+      <c r="O662" s="3">
+        <v>1</v>
+      </c>
+      <c r="P662" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q662" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R662" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:18">
+      <c r="B663" s="3">
+        <v>658</v>
+      </c>
+      <c r="C663" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D663" s="3">
+        <v>520928075421</v>
+      </c>
+      <c r="E663" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F663" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G663" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H663" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="I663" s="3">
+        <v>6</v>
+      </c>
+      <c r="J663" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="K663" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="L663" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M663" s="3"/>
+      <c r="N663" s="3"/>
+      <c r="O663" s="3">
+        <v>1</v>
+      </c>
+      <c r="P663" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q663" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R663" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" spans="1:18">
+      <c r="B664" s="3">
+        <v>659</v>
+      </c>
+      <c r="C664" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D664" s="3">
+        <v>840504075383</v>
+      </c>
+      <c r="E664" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F664" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="G664" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H664" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="I664" s="3">
+        <v>5</v>
+      </c>
+      <c r="J664" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="K664" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="L664" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M664" s="3"/>
+      <c r="N664" s="3"/>
+      <c r="O664" s="3">
+        <v>1</v>
+      </c>
+      <c r="P664" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="Q664" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R664" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:18">
+      <c r="B665" s="3">
+        <v>660</v>
+      </c>
+      <c r="C665" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="D665" s="3">
+        <v>540323075398</v>
+      </c>
+      <c r="E665" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F665" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="G665" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H665" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="I665" s="3">
+        <v>1</v>
+      </c>
+      <c r="J665" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="K665" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="L665" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M665" s="3"/>
+      <c r="N665" s="3"/>
+      <c r="O665" s="3">
+        <v>1</v>
+      </c>
+      <c r="P665" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="Q665" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R665" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" spans="1:18">
+      <c r="B666" s="3">
+        <v>661</v>
+      </c>
+      <c r="C666" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D666" s="3">
+        <v>381213025378</v>
+      </c>
+      <c r="E666" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F666" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G666" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H666" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="I666" s="3">
+        <v>3</v>
+      </c>
+      <c r="J666" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="K666" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="L666" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M666" s="3"/>
+      <c r="N666" s="3"/>
+      <c r="O666" s="3">
+        <v>1</v>
+      </c>
+      <c r="P666" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="Q666" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R666" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:18">
+      <c r="B667" s="3">
+        <v>662</v>
+      </c>
+      <c r="C667" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="D667" s="3">
+        <v>660526075079</v>
+      </c>
+      <c r="E667" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F667" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="G667" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H667" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="I667" s="3">
+        <v>3</v>
+      </c>
+      <c r="J667" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="K667" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="L667" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M667" s="3"/>
+      <c r="N667" s="3"/>
+      <c r="O667" s="3">
+        <v>1</v>
+      </c>
+      <c r="P667" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="Q667" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R667" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668" spans="1:18">
+      <c r="B668" s="3">
+        <v>663</v>
+      </c>
+      <c r="C668" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D668" s="3">
+        <v>840214015059</v>
+      </c>
+      <c r="E668" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F668" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="G668" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H668" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="I668" s="3">
+        <v>3</v>
+      </c>
+      <c r="J668" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="K668" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="L668" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M668" s="3"/>
+      <c r="N668" s="3"/>
+      <c r="O668" s="3">
+        <v>1</v>
+      </c>
+      <c r="P668" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="Q668" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R668" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:18">
+      <c r="B669" s="3">
+        <v>664</v>
+      </c>
+      <c r="C669" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D669" s="3">
+        <v>781119075080</v>
+      </c>
+      <c r="E669" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F669" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G669" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H669" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I669" s="3">
+        <v>3</v>
+      </c>
+      <c r="J669" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="K669" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="L669" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M669" s="3"/>
+      <c r="N669" s="3"/>
+      <c r="O669" s="3">
+        <v>1</v>
+      </c>
+      <c r="P669" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="Q669" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R669" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:18">
+      <c r="B670" s="3">
+        <v>665</v>
+      </c>
+      <c r="C670" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D670" s="3">
+        <v>620410075513</v>
+      </c>
+      <c r="E670" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F670" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="G670" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H670" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="I670" s="3">
+        <v>6</v>
+      </c>
+      <c r="J670" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="K670" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="L670" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M670" s="3"/>
+      <c r="N670" s="3"/>
+      <c r="O670" s="3">
+        <v>1</v>
+      </c>
+      <c r="P670" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="Q670" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R670" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:18">
+      <c r="B671" s="3">
+        <v>666</v>
+      </c>
+      <c r="C671" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D671" s="3">
+        <v>620410075513</v>
+      </c>
+      <c r="E671" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F671" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="G671" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H671" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="I671" s="3">
+        <v>6</v>
+      </c>
+      <c r="J671" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="K671" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="L671" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M671" s="3"/>
+      <c r="N671" s="3"/>
+      <c r="O671" s="3">
+        <v>1</v>
+      </c>
+      <c r="P671" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="Q671" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R671" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:18">
+      <c r="B672" s="3">
+        <v>667</v>
+      </c>
+      <c r="C672" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D672" s="3">
+        <v>811229075203</v>
+      </c>
+      <c r="E672" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F672" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="G672" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H672" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="I672" s="3">
+        <v>5</v>
+      </c>
+      <c r="J672" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="K672" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="L672" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M672" s="3"/>
+      <c r="N672" s="3"/>
+      <c r="O672" s="3">
+        <v>1</v>
+      </c>
+      <c r="P672" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="Q672" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R672" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:18">
+      <c r="B673" s="3">
+        <v>668</v>
+      </c>
+      <c r="C673" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D673" s="3">
+        <v>470324075153</v>
+      </c>
+      <c r="E673" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F673" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="G673" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H673" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="I673" s="3">
+        <v>2</v>
+      </c>
+      <c r="J673" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="K673" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="L673" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M673" s="3"/>
+      <c r="N673" s="3"/>
+      <c r="O673" s="3">
+        <v>1</v>
+      </c>
+      <c r="P673" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="Q673" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R673" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:18">
+      <c r="B674" s="3">
+        <v>669</v>
+      </c>
+      <c r="C674" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D674" s="3">
+        <v>761115075368</v>
+      </c>
+      <c r="E674" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F674" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="G674" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H674" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="I674" s="3">
+        <v>4</v>
+      </c>
+      <c r="J674" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="K674" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="L674" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M674" s="3"/>
+      <c r="N674" s="3"/>
+      <c r="O674" s="3">
+        <v>1</v>
+      </c>
+      <c r="P674" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="Q674" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R674" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:18">
+      <c r="B675" s="3">
+        <v>670</v>
+      </c>
+      <c r="C675" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D675" s="3">
+        <v>870402355461</v>
+      </c>
+      <c r="E675" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F675" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="G675" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H675" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="I675" s="3">
+        <v>6</v>
+      </c>
+      <c r="J675" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="K675" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="L675" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M675" s="3"/>
+      <c r="N675" s="3"/>
+      <c r="O675" s="3">
+        <v>1</v>
+      </c>
+      <c r="P675" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="Q675" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R675" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:18">
+      <c r="B676" s="3">
+        <v>671</v>
+      </c>
+      <c r="C676" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D676" s="3">
+        <v>760829025798</v>
+      </c>
+      <c r="E676" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F676" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="G676" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H676" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="I676" s="3">
+        <v>4</v>
+      </c>
+      <c r="J676" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="K676" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="L676" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M676" s="3"/>
+      <c r="N676" s="3"/>
+      <c r="O676" s="3">
+        <v>1</v>
+      </c>
+      <c r="P676" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="Q676" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R676" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:18">
+      <c r="B677" s="3">
+        <v>672</v>
+      </c>
+      <c r="C677" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D677" s="3">
+        <v>840214015059</v>
+      </c>
+      <c r="E677" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F677" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="G677" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H677" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="I677" s="3">
+        <v>3</v>
+      </c>
+      <c r="J677" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="K677" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="L677" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M677" s="3"/>
+      <c r="N677" s="3"/>
+      <c r="O677" s="3">
+        <v>1</v>
+      </c>
+      <c r="P677" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="Q677" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R677" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:18">
+      <c r="B678" s="3">
+        <v>673</v>
+      </c>
+      <c r="C678" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D678" s="3">
+        <v>751027075342</v>
+      </c>
+      <c r="E678" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F678" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="G678" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H678" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="I678" s="3">
+        <v>1</v>
+      </c>
+      <c r="J678" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="K678" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="L678" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M678" s="3"/>
+      <c r="N678" s="3"/>
+      <c r="O678" s="3">
+        <v>1</v>
+      </c>
+      <c r="P678" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="Q678" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R678" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:18">
+      <c r="B679" s="3">
+        <v>674</v>
+      </c>
+      <c r="C679" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D679" s="3">
+        <v>840504075383</v>
+      </c>
+      <c r="E679" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F679" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="G679" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H679" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="I679" s="3">
+        <v>5</v>
+      </c>
+      <c r="J679" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="K679" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="L679" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M679" s="3"/>
+      <c r="N679" s="3"/>
+      <c r="O679" s="3">
+        <v>1</v>
+      </c>
+      <c r="P679" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="Q679" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R679" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
